--- a/529/16-DanhGiaTieuChi-529.xlsx
+++ b/529/16-DanhGiaTieuChi-529.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITLAB\Documents\GitHub\16-cdptw1-2\529\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Module-847" sheetId="1" r:id="rId1"/>
     <sheet name="HinhMinh Họa" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -79,7 +84,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -87,13 +92,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -180,6 +185,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -569,7 +577,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -580,14 +588,14 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.8984375" customWidth="1"/>
-    <col min="2" max="2" width="41.796875" customWidth="1"/>
-    <col min="3" max="3" width="13.296875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -668,7 +676,7 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -679,7 +687,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -712,7 +720,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -744,7 +752,7 @@
       <c r="B14" s="4"/>
       <c r="C14">
         <f>SUM(Table1[Điểm])</f>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -768,7 +776,7 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/529/16-DanhGiaTieuChi-529.xlsx
+++ b/529/16-DanhGiaTieuChi-529.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ITLAB\Documents\GitHub\16-cdptw1-2\529\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Module-847" sheetId="1" r:id="rId1"/>
     <sheet name="HinhMinh Họa" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -84,7 +79,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -92,13 +87,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -577,7 +572,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -588,14 +583,14 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.8984375" customWidth="1"/>
+    <col min="2" max="2" width="41.8984375" customWidth="1"/>
+    <col min="3" max="3" width="13.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -643,7 +638,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -752,7 +747,7 @@
       <c r="B14" s="4"/>
       <c r="C14">
         <f>SUM(Table1[Điểm])</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -776,7 +771,7 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
